--- a/destination_query_count.xlsx
+++ b/destination_query_count.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="destination_query_count"/>
   </sheets>
   <definedNames>
-    <definedName name="destination_query_count">'destination_query_count'!$A$1:$B$25</definedName>
+    <definedName name="destination_query_count">'destination_query_count'!$A$1:$B$26</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B11" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B13" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B18" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
@@ -546,7 +546,7 @@
     <row outlineLevel="0" r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>UCLA</t>
+          <t>UC Davis</t>
         </is>
       </c>
       <c r="B20" s="0">
@@ -556,7 +556,7 @@
     <row outlineLevel="0" r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>UCSD</t>
+          <t>UCLA</t>
         </is>
       </c>
       <c r="B21" s="0">
@@ -566,40 +566,50 @@
     <row outlineLevel="0" r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>UIUC</t>
+          <t>UCSD</t>
         </is>
       </c>
       <c r="B22" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>USC</t>
+          <t>UIUC</t>
         </is>
       </c>
       <c r="B23" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Vanderbilt</t>
+          <t>USC</t>
         </is>
       </c>
       <c r="B24" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
+          <t>Vanderbilt</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
           <t>Yale</t>
         </is>
       </c>
-      <c r="B25" s="0">
+      <c r="B26" s="0">
         <v>1</v>
       </c>
     </row>
